--- a/Content/template/templateIjin.xlsx
+++ b/Content/template/templateIjin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV004\Projects\UploadLateSDLC\Content\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV004\Projects\newSDLC\Content\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>UserName</t>
   </si>
@@ -45,7 +45,31 @@
     <t>CONTOH, UNTUK PENGISIAN ADA DITAB Sheet1, dan jangan ubah nama tab "Sheet1"</t>
   </si>
   <si>
-    <t>Ijin</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>cuti</t>
+  </si>
+  <si>
+    <t>izin</t>
+  </si>
+  <si>
+    <t>sakit</t>
   </si>
 </sst>
 </file>
@@ -401,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -411,13 +435,14 @@
   <cols>
     <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="7.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,13 +450,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -443,23 +472,24 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
@@ -467,15 +497,17 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,27 +515,61 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
